--- a/Client/Unity/LubanConfig/MiniTemplate/Datas/#monster.xlsx
+++ b/Client/Unity/LubanConfig/MiniTemplate/Datas/#monster.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -94,6 +94,21 @@
   </si>
   <si>
     <t>float</t>
+  </si>
+  <si>
+    <t>MonsterType</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Boss</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>##group</t>
   </si>
 </sst>
 </file>
@@ -189,8 +204,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:P4" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="B2:P4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:P5" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="B3:P5"/>
   <tableColumns count="15">
     <tableColumn id="1" uniqueName="ID" name="ID">
       <xmlColumnPr mapId="1" xpath="/root/item/@ID" xmlDataType="integer"/>
@@ -529,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,10 +576,10 @@
         <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
         <v>22</v>
@@ -602,145 +617,150 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>1001</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3">
-        <v>201</v>
-      </c>
-      <c r="H3">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="I3">
-        <v>2000</v>
-      </c>
-      <c r="J3">
-        <v>100</v>
-      </c>
-      <c r="K3">
-        <v>80</v>
-      </c>
-      <c r="L3">
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
         <v>5</v>
       </c>
-      <c r="M3">
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
         <v>10</v>
       </c>
-      <c r="N3">
-        <v>5</v>
-      </c>
-      <c r="O3">
-        <v>5</v>
-      </c>
-      <c r="P3">
-        <v>2</v>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4">
+        <v>1001</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>201</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2000</v>
+      </c>
+      <c r="J4">
+        <v>100</v>
+      </c>
+      <c r="K4">
+        <v>80</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>2001</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="b">
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>301</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>4.5</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>8000</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <v>250</v>
       </c>
-      <c r="K4">
+      <c r="K5">
         <v>180</v>
       </c>
-      <c r="L4">
+      <c r="L5">
         <v>55</v>
       </c>
-      <c r="M4">
+      <c r="M5">
         <v>60</v>
       </c>
-      <c r="N4">
+      <c r="N5">
         <v>20</v>
       </c>
-      <c r="O4">
+      <c r="O5">
         <v>10</v>
       </c>
-      <c r="P4">
+      <c r="P5">
         <v>5</v>
       </c>
     </row>
